--- a/BD/FILE_LIST_MSG.xlsx
+++ b/BD/FILE_LIST_MSG.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\www\QLNV\QLNV_document\BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D47EE2-4C67-4DA8-87F7-B127F86E9392}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942D7923-C42A-4DD0-B9F2-24D4D95C223B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>STT</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Your password and confirm password do not match.</t>
   </si>
   <si>
-    <t>The password field must be 12 or more character in length and including UPPER/lowercase and number</t>
-  </si>
-  <si>
     <t>MSG_008</t>
   </si>
   <si>
@@ -94,13 +91,29 @@
   </si>
   <si>
     <t>MSG_010</t>
+  </si>
+  <si>
+    <t>MSG_011</t>
+  </si>
+  <si>
+    <t>Are you sure you want to logout?</t>
+  </si>
+  <si>
+    <t>MSG_012</t>
+  </si>
+  <si>
+    <t>Sesion Expired
+Please login again.</t>
+  </si>
+  <si>
+    <t>Invalid password.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +125,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,6 +193,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +482,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -559,7 +586,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>17</v>
@@ -570,7 +597,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>18</v>
@@ -581,21 +608,33 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
@@ -708,6 +747,7 @@
       <c r="E37" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/BD/FILE_LIST_MSG.xlsx
+++ b/BD/FILE_LIST_MSG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942D7923-C42A-4DD0-B9F2-24D4D95C223B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78179DF-D485-4824-89A0-F54FCDAE9F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>STT</t>
   </si>
@@ -107,6 +107,48 @@
   </si>
   <si>
     <t>Invalid password.</t>
+  </si>
+  <si>
+    <t>MSG_013</t>
+  </si>
+  <si>
+    <t>MSG_014</t>
+  </si>
+  <si>
+    <t>MSG_015</t>
+  </si>
+  <si>
+    <t>Invalid file size.</t>
+  </si>
+  <si>
+    <t>Path file error.</t>
+  </si>
+  <si>
+    <t>Format file error. Please delete or upload again.</t>
+  </si>
+  <si>
+    <t>MSG_016</t>
+  </si>
+  <si>
+    <t>MSG_017</t>
+  </si>
+  <si>
+    <t>Upload file successful.</t>
+  </si>
+  <si>
+    <t>MSG_018</t>
+  </si>
+  <si>
+    <t>File error . Lines{String} duplicate.</t>
+  </si>
+  <si>
+    <t>Duplicate data. Lines{String} have been exists in table.</t>
+  </si>
+  <si>
+    <t>MSG_019</t>
+  </si>
+  <si>
+    <t>Please choose file before upload.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +525,7 @@
   <dimension ref="C3:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,39 +679,71 @@
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>

--- a/BD/FILE_LIST_MSG.xlsx
+++ b/BD/FILE_LIST_MSG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78179DF-D485-4824-89A0-F54FCDAE9F1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BB389-B867-437C-911E-6371E1405682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>Please choose file before upload.</t>
+  </si>
+  <si>
+    <t>MSG_020</t>
+  </si>
+  <si>
+    <t>Invalid role.</t>
   </si>
 </sst>
 </file>
@@ -525,7 +531,7 @@
   <dimension ref="C3:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,8 +753,12 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>

--- a/BD/FILE_LIST_MSG.xlsx
+++ b/BD/FILE_LIST_MSG.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\BD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55BB389-B867-437C-911E-6371E1405682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27135" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -39,58 +28,61 @@
     <t>MSG_001</t>
   </si>
   <si>
+    <t>Please enter your Email Address.</t>
+  </si>
+  <si>
     <t>MSG_002</t>
   </si>
   <si>
+    <t>Please enter the password.</t>
+  </si>
+  <si>
     <t>MSG_003</t>
   </si>
   <si>
+    <t>The user Email or password is wrong.</t>
+  </si>
+  <si>
     <t>MSG_004</t>
   </si>
   <si>
+    <t>Invalid email.</t>
+  </si>
+  <si>
     <t>MSG_005</t>
   </si>
   <si>
+    <t>Please enter your Current Password.</t>
+  </si>
+  <si>
     <t>MSG_006</t>
   </si>
   <si>
+    <t>Please enter your New Password.</t>
+  </si>
+  <si>
     <t>MSG_007</t>
   </si>
   <si>
-    <t>Please enter your Email Address.</t>
-  </si>
-  <si>
-    <t>Please enter the password.</t>
-  </si>
-  <si>
-    <t>The user Email or password is wrong.</t>
-  </si>
-  <si>
-    <t>Invalid email.</t>
-  </si>
-  <si>
-    <t>Please enter your Current Password.</t>
-  </si>
-  <si>
-    <t>Please enter your New Password.</t>
-  </si>
-  <si>
     <t>Please enter your Confirm Password.</t>
   </si>
   <si>
+    <t>MSG_008</t>
+  </si>
+  <si>
     <t>The current password is incorrect. Please enter your Current Password.</t>
   </si>
   <si>
+    <t>MSG_009</t>
+  </si>
+  <si>
     <t>Your password and confirm password do not match.</t>
   </si>
   <si>
-    <t>MSG_008</t>
-  </si>
-  <si>
-    <t>MSG_009</t>
-  </si>
-  <si>
     <t>MSG_010</t>
+  </si>
+  <si>
+    <t>Invalid password.</t>
   </si>
   <si>
     <t>MSG_011</t>
@@ -106,45 +98,42 @@
 Please login again.</t>
   </si>
   <si>
-    <t>Invalid password.</t>
-  </si>
-  <si>
     <t>MSG_013</t>
   </si>
   <si>
+    <t>Path file error.</t>
+  </si>
+  <si>
     <t>MSG_014</t>
   </si>
   <si>
+    <t>Format file error. Please delete or upload again.</t>
+  </si>
+  <si>
     <t>MSG_015</t>
   </si>
   <si>
     <t>Invalid file size.</t>
   </si>
   <si>
-    <t>Path file error.</t>
-  </si>
-  <si>
-    <t>Format file error. Please delete or upload again.</t>
-  </si>
-  <si>
     <t>MSG_016</t>
   </si>
   <si>
+    <t>File error . Lines{String} duplicate.</t>
+  </si>
+  <si>
     <t>MSG_017</t>
   </si>
   <si>
+    <t>Duplicate data. Lines{String} have been exists in table.</t>
+  </si>
+  <si>
+    <t>MSG_018</t>
+  </si>
+  <si>
     <t>Upload file successful.</t>
   </si>
   <si>
-    <t>MSG_018</t>
-  </si>
-  <si>
-    <t>File error . Lines{String} duplicate.</t>
-  </si>
-  <si>
-    <t>Duplicate data. Lines{String} have been exists in table.</t>
-  </si>
-  <si>
     <t>MSG_019</t>
   </si>
   <si>
@@ -155,18 +144,42 @@
   </si>
   <si>
     <t>Invalid role.</t>
+  </si>
+  <si>
+    <t>MSG_021</t>
+  </si>
+  <si>
+    <t>File error . Lines{String} Invalid {Name column}.</t>
+  </si>
+  <si>
+    <t>MSG_022</t>
+  </si>
+  <si>
+    <t>File error . Lines{String} not BLANK {Name column}.</t>
+  </si>
+  <si>
+    <t>MSG_023</t>
+  </si>
+  <si>
+    <t>Upload file error. Please delete or upload again.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,17 +187,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +355,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -208,58 +552,344 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="true"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" wrapText="true"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -308,7 +938,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -343,7 +973,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -383,7 +1013,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -407,9 +1037,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -433,7 +1063,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -486,7 +1116,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -511,328 +1141,335 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="106.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.14" style="1"/>
+    <col min="4" max="4" width="24.4266666666667" style="1" customWidth="true"/>
+    <col min="5" max="5" width="106.853333333333" style="2" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="3:5">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="3">
+    <row r="4" spans="3:5">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" s="4">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="4">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    <row r="9" spans="3:5">
+      <c r="C9" s="4">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="4">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="4">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="31.5" spans="3:5">
+      <c r="C15" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="4">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="3">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="3">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="3">
-        <v>8</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="3">
-        <v>9</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="3">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
-        <v>12</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="3">
-        <v>13</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="4"/>
+      <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="3">
-        <v>14</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="7" t="s">
+    <row r="19" spans="3:5">
+      <c r="C19" s="4"/>
+      <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+    <row r="22" spans="3:5">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+    <row r="23" spans="3:5">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="4"/>
+    <row r="24" spans="3:5">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="3:5">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="3:5">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="3:5">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" spans="3:5">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="3:5">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/BD/FILE_LIST_MSG.xlsx
+++ b/BD/FILE_LIST_MSG.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\quanlynhansu\QLNV_document\BD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FFC455-E64F-497F-8E69-1EDA00A8AD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27135" windowHeight="12450"/>
+    <workbookView minimized="1" xWindow="34710" yWindow="2775" windowWidth="13005" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -167,14 +173,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,159 +190,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,194 +204,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -552,344 +215,58 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="left" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1013,7 +390,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1037,9 +414,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1063,7 +440,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1116,7 +493,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1141,29 +518,29 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:E37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.14" style="1"/>
-    <col min="4" max="4" width="24.4266666666667" style="1" customWidth="true"/>
-    <col min="5" max="5" width="106.853333333333" style="2" customWidth="true"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="106.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
@@ -1298,7 +675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="31.5" spans="3:5">
+    <row r="15" spans="3:5" ht="30">
       <c r="C15" s="5">
         <v>12</v>
       </c>
@@ -1469,7 +846,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>